--- a/Back/Gestion des conges/src/main/resources/files/Congé_accepterJULY-26_JULY-30.xlsx
+++ b/Back/Gestion des conges/src/main/resources/files/Congé_accepterJULY-26_JULY-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID Employee</t>
   </si>
@@ -36,24 +36,6 @@
   </si>
   <si>
     <t>Validateur</t>
-  </si>
-  <si>
-    <t>Chaima</t>
-  </si>
-  <si>
-    <t>HadjKacem</t>
-  </si>
-  <si>
-    <t>Maladie</t>
-  </si>
-  <si>
-    <t>2023-07-27T09:43:11</t>
-  </si>
-  <si>
-    <t>2023-07-29T09:43:11</t>
-  </si>
-  <si>
-    <t>Achref Zitoun</t>
   </si>
 </sst>
 </file>
@@ -98,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,32 +112,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
